--- a/testData/session_configuration_test_data.xlsx
+++ b/testData/session_configuration_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_Visit" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>访问失败次数不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失败锁定时间输入不正确数字校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,22 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败锁定时间不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数输入较长校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1s-?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,23 +155,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>访问失败次数3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请选择</t>
+    <t>内置密码策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数不能小于1且不能大于5！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@##$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数为非法字符校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +206,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,12 +266,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,9 +300,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,7 +322,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -353,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,10 +396,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +430,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,23 +605,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,19 +629,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -640,10 +649,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -660,23 +669,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,12 +702,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -707,114 +716,117 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,25 +834,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -854,7 +866,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -865,23 +877,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.375" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,22 +901,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -913,39 +925,39 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
